--- a/tests/testthat/testdata/struct_tests2.xlsx
+++ b/tests/testthat/testdata/struct_tests2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\analysis\UMARfetchR\tests\testthat\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83250A4B-884F-4346-9B3B-4514148180CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C3BCBC-53AB-4D3F-9C9A-04A4926CECE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{EEDEB2EA-F962-40C2-B3AB-5CC011351175}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21375" windowHeight="13380" xr2:uid="{EEDEB2EA-F962-40C2-B3AB-5CC011351175}"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>source</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>sdt</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -445,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1767A3-7596-4015-847D-18875E8AAFAF}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,16 +482,19 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -508,16 +517,19 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -540,16 +552,19 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -572,10 +587,13 @@
         <v>14</v>
       </c>
       <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -598,6 +616,9 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/tests/testthat/testdata/struct_tests2.xlsx
+++ b/tests/testthat/testdata/struct_tests2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\analysis\UMARfetchR\tests\testthat\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C3BCBC-53AB-4D3F-9C9A-04A4926CECE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BEC006-3D4F-4D29-B4AD-FF8C4E33F7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21375" windowHeight="13380" xr2:uid="{EEDEB2EA-F962-40C2-B3AB-5CC011351175}"/>
+    <workbookView xWindow="2790" yWindow="2190" windowWidth="18900" windowHeight="11160" xr2:uid="{EEDEB2EA-F962-40C2-B3AB-5CC011351175}"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>umar</t>
   </si>
   <si>
-    <t>mz</t>
-  </si>
-  <si>
     <t>dfg</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Maja Založnik</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +482,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -499,13 +499,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -514,19 +514,19 @@
         <v>234</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -534,13 +534,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -549,19 +549,19 @@
         <v>1123</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
         <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -569,13 +569,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -584,13 +584,13 @@
         <v>1123</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -613,13 +613,13 @@
         <v>1123</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
